--- a/biology/Zoologie/Andora_(genre)/Andora_(genre).xlsx
+++ b/biology/Zoologie/Andora_(genre)/Andora_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andora est un genre d'étoiles de mer de la famille des Ophidiasteridae.
-Ce genre est très proche de son cousin Nardoa (dont il est l'anagramme), et est censé s'en distinguer par le fait que les plaques squelettiques à la base des bras sont ordonnées[1], alors que leur disposition est plus souvent chaotique chez Nardoa.
+Ce genre est très proche de son cousin Nardoa (dont il est l'anagramme), et est censé s'en distinguer par le fait que les plaques squelettiques à la base des bras sont ordonnées, alors que leur disposition est plus souvent chaotique chez Nardoa.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 novembre 2014) :
 Sous-genre Andora (Andora) A.M. Clark, 1967
 Andora bruuni Rowe, 1977 - océan Indien occidental (canal du Mozambique, 60 m)
 Andora faouzii (Macan, 1938) - Arabie et peut-être océan Indien (10-20 m)
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
